--- a/biology/Botanique/Lactarius_flavopalustris/Lactarius_flavopalustris.xlsx
+++ b/biology/Botanique/Lactarius_flavopalustris/Lactarius_flavopalustris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lactarius flavopalustris est une espèce de champignons de la famille des Russulaceae. Il est également connu sous le nom de lactaire jaune et lilas[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lactarius flavopalustris est une espèce de champignons de la famille des Russulaceae. Il est également connu sous le nom de lactaire jaune et lilas.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chapeau mesure généralement entre 30 et 35 mm de diamètre[2] et le sporophore mesure entre 3 et 5 cm de haut[3]. Le lactarius flavopalustris est de couleur jaune[2] et arbore parfois des tâches violettes en cas de blessures[4]. 
-La chair du champignon est blanche et tourne au violacé au contact de l'air[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau mesure généralement entre 30 et 35 mm de diamètre et le sporophore mesure entre 3 et 5 cm de haut. Le lactarius flavopalustris est de couleur jaune et arbore parfois des tâches violettes en cas de blessures. 
+La chair du champignon est blanche et tourne au violacé au contact de l'air.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se développe sur les sols calcaires et acides[2], dans des forêts de résineux et de feuillus[4].
-On la retrouve notamment dans les forêts boréales de Scandinavie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se développe sur les sols calcaires et acides, dans des forêts de résineux et de feuillus.
+On la retrouve notamment dans les forêts boréales de Scandinavie.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Lactarius flavopalustris Kytöv. (d)[5].
-Lactarius flavopalustris a pour synonyme[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Lactarius flavopalustris Kytöv. (d).
+Lactarius flavopalustris a pour synonyme :
 Lactarius flavidus Korhonen</t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude, publiée en avril 2024, menée conjointement en France par l’UICN, l’OFB, le MNHN et l’AdoniF sur le statut de conservation dans le pays de plus de 250 champignons ; classe cette espèce Lactarius flavopalustris dans la catégorie CR (en danger critique)[6],[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude, publiée en avril 2024, menée conjointement en France par l’UICN, l’OFB, le MNHN et l’AdoniF sur le statut de conservation dans le pays de plus de 250 champignons ; classe cette espèce Lactarius flavopalustris dans la catégorie CR (en danger critique),.
 </t>
         </is>
       </c>
